--- a/用例数据/沪A/基金通1.0/业务处理/测试结果.xlsx
+++ b/用例数据/沪A/基金通1.0/业务处理/测试结果.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="401">
   <si>
     <t>SERIALNUM</t>
   </si>
@@ -1223,25 +1223,7 @@
     <t>1.000000</t>
   </si>
   <si>
-    <t>59852</t>
-  </si>
-  <si>
     <t>-7500.220</t>
-  </si>
-  <si>
-    <t>-490148.00</t>
-  </si>
-  <si>
-    <t>50000</t>
-  </si>
-  <si>
-    <t>1.01200081</t>
-  </si>
-  <si>
-    <t>-6000.825</t>
-  </si>
-  <si>
-    <t>-490119.00</t>
   </si>
 </sst>
 </file>
@@ -7464,13 +7446,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH23"/>
+  <dimension ref="A1:CH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AO6" sqref="AO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -7761,7 +7747,7 @@
         <v>67</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>67</v>
+        <v>264</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>398</v>
@@ -7855,6 +7841,9 @@
       </c>
       <c r="AO2" s="1" t="s">
         <v>103</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>67</v>
@@ -8018,7 +8007,7 @@
         <v>67</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>67</v>
+        <v>264</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>398</v>
@@ -8112,6 +8101,9 @@
       </c>
       <c r="AO3" s="1" t="s">
         <v>103</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>67</v>
@@ -8275,7 +8267,7 @@
         <v>67</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>400</v>
+        <v>264</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>398</v>
@@ -8284,7 +8276,7 @@
         <v>78</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>264</v>
@@ -8368,7 +8360,10 @@
         <v>67</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>402</v>
+        <v>103</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>67</v>
@@ -8503,263 +8498,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="BK5" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BO5" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="BP5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ5" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="BR5" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="BS5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BT5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BU5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BV5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BW5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BX5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BY5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BZ5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CA5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CB5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CC5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CD5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CE5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CF5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CG5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CH5" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -8772,12 +8511,6 @@
     <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/用例数据/沪A/基金通1.0/业务处理/测试结果.xlsx
+++ b/用例数据/沪A/基金通1.0/业务处理/测试结果.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE38DB97-7013-4D5A-B33E-019C7B5F8102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fundtraderesult" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="415">
   <si>
     <t>SERIALNUM</t>
   </si>
@@ -1224,12 +1225,54 @@
   </si>
   <si>
     <t>-7500.220</t>
+  </si>
+  <si>
+    <t>30002908</t>
+  </si>
+  <si>
+    <t>005_006_001</t>
+  </si>
+  <si>
+    <t>20230505235959</t>
+  </si>
+  <si>
+    <t>20230506143632</t>
+  </si>
+  <si>
+    <t>添富快线</t>
+  </si>
+  <si>
+    <t>20230505000000</t>
+  </si>
+  <si>
+    <t>900925637068.930</t>
+  </si>
+  <si>
+    <t>000007310751</t>
+  </si>
+  <si>
+    <t>30002909</t>
+  </si>
+  <si>
+    <t>000007310752</t>
+  </si>
+  <si>
+    <t>30002910</t>
+  </si>
+  <si>
+    <t>000007310753</t>
+  </si>
+  <si>
+    <t>30002911</t>
+  </si>
+  <si>
+    <t>000007310754</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1548,11 +1591,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3059,14 +3102,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:EI40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -7411,25 +7458,1337 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AU14" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AV14" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AW14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BA14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI14" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="BJ14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BL14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BM14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN14" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BP14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BS14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BT14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV14" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="BX14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BY14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BZ14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CB14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CD14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CE14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CG14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="CH14" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="CJ14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CK14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CR14" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="CT14" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CV14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="DA14" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="DC14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DD14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DE14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="DF14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DG14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="DJ14" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="DK14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DL14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DM14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DN14" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="DO14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DP14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DQ14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DR14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DS14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DT14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DU14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DV14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DW14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DX14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DY14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="ED14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="EE14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="EG14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="EI14" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AV15" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AW15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ15" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BA15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI15" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="BJ15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BL15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BM15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN15" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BP15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BS15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BT15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV15" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="BX15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BY15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BZ15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CB15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CD15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CE15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CG15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="CH15" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="CJ15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CK15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CR15" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="CT15" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CV15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="DA15" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="DC15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DD15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DE15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="DF15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DG15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="DJ15" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="DK15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DL15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DM15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DN15" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="DO15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DP15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DQ15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DR15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DS15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DT15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DU15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DV15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DW15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DX15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DY15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="ED15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="EE15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="EG15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="EI15" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AU16" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AV16" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AW16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ16" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BA16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI16" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="BJ16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BL16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BM16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BP16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BS16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BT16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV16" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="BX16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BY16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BZ16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CB16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CD16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CE16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CG16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="CH16" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="CJ16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CK16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CR16" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="CT16" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CV16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="DA16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="DC16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DD16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DE16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="DF16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DG16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="DJ16" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="DK16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DL16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DM16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DN16" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="DO16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DP16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DQ16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DR16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DS16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DT16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DU16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DV16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DW16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DX16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DY16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="ED16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="EE16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="EG16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="EI16" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AU17" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AV17" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AW17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ17" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BA17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="BJ17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BL17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BM17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN17" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BP17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BS17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BT17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV17" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="BX17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BY17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BZ17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CB17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CD17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CE17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CG17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="CH17" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="CJ17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CK17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CR17" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="CT17" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CV17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="DA17" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="DC17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DD17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DE17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="DF17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DG17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="DJ17" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="DK17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DL17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DM17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DN17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="DO17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DP17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DQ17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DR17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DS17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DT17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DU17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DV17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DW17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DX17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DY17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="ED17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="EE17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="EG17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="EI17" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -7441,15 +8800,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AO6" sqref="AO6"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
